--- a/Barroc IT - Documentatie/Tom/Groep 1 - Agenda - 29-09-2015/agenda 29-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/Groep 1 - Agenda - 29-09-2015/agenda 29-09-2015.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>wie</t>
   </si>
@@ -163,27 +163,9 @@
     <t>Notulist: Steven</t>
   </si>
   <si>
-    <t>Welkom / Algemenen medelingen!</t>
-  </si>
-  <si>
-    <t>Afsluiting / Rondvragen</t>
-  </si>
-  <si>
-    <t>Klachten/Opmerkingen</t>
-  </si>
-  <si>
-    <t>Werkdrijf verbeteren</t>
-  </si>
-  <si>
-    <t>Datum: 29-09-2015</t>
-  </si>
-  <si>
     <t>Locatie: Lokaal BN0330</t>
   </si>
   <si>
-    <t xml:space="preserve">Problemen bespreken over achterstand. </t>
-  </si>
-  <si>
     <t>v/t</t>
   </si>
   <si>
@@ -191,6 +173,30 @@
   </si>
   <si>
     <t>Tijd: 09:30  - 09:50</t>
+  </si>
+  <si>
+    <t>Goedkeuren notulen (Op en aanmerkingen notulen)</t>
+  </si>
+  <si>
+    <t>Datum: 05-10-2015</t>
+  </si>
+  <si>
+    <t>Welkom / Vaststellen Voorzitter / Notulist</t>
+  </si>
+  <si>
+    <t>Afsluiting en rondvraag.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Het vaststellen volgende vergadering. </t>
+  </si>
+  <si>
+    <t>Mededelingen bespreken. (Alleen de mededelingen. Daarna een rondvragen)</t>
+  </si>
+  <si>
+    <t>Vaststellen definitiefe agenda (Of de punten nog relevant zijn.)</t>
+  </si>
+  <si>
+    <t>De agendapunten bespreken. (De groepspunten)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -602,15 +608,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color theme="2"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color theme="2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,7 +635,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -666,7 +679,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -712,10 +724,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -723,6 +731,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -739,6 +750,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -753,12 +767,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1069,8 +1081,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,51 +1102,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="88"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1147,22 +1159,22 @@
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="34"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="43"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1170,40 +1182,40 @@
         <v>18</v>
       </c>
       <c r="C8" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="54">
         <v>1</v>
       </c>
-      <c r="F8" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="37"/>
+      <c r="F8" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="63" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="54">
         <v>2</v>
       </c>
-      <c r="F9" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="37"/>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1211,19 +1223,19 @@
         <v>18</v>
       </c>
       <c r="C10" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="54">
         <v>3</v>
       </c>
-      <c r="F10" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="37"/>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1231,19 +1243,19 @@
         <v>18</v>
       </c>
       <c r="C11" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="55">
+        <v>22</v>
+      </c>
+      <c r="E11" s="54">
         <v>4</v>
       </c>
-      <c r="F11" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="38"/>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="H11" s="37"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1251,150 +1263,166 @@
         <v>18</v>
       </c>
       <c r="C12" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="54">
         <v>5</v>
       </c>
-      <c r="F12" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="38"/>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
       <c r="D13" s="13"/>
-      <c r="E13" s="55">
+      <c r="E13" s="54">
         <v>6</v>
       </c>
-      <c r="F13" s="56"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="37"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="55">
+      <c r="E14" s="54">
         <v>7</v>
       </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="38"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="37"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="55">
+      <c r="E15" s="54">
         <v>8</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
+      <c r="F15" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="55">
+      <c r="E16" s="54">
         <v>9</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
+      <c r="F16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="38"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="46"/>
+      <c r="E17" s="44"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <f>SUM(C8:C17)</f>
-        <v>50</v>
-      </c>
-      <c r="D18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="51" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="62"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="50" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="62"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="51" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="52" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="63"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="23" t="s">
         <v>20</v>
       </c>
@@ -1409,24 +1437,24 @@
       <c r="E25" s="4">
         <v>1</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="I25" s="26"/>
+      <c r="F25" s="29"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="I26" s="26"/>
+      <c r="F26" s="30"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="E27" s="4">
         <v>3</v>
       </c>
-      <c r="F27" s="30"/>
-      <c r="I27" s="26"/>
+      <c r="F27" s="29"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -1434,51 +1462,53 @@
       <c r="E28" s="4">
         <v>4</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="E29" s="4">
+      <c r="E29" s="88">
         <v>5</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="F29" s="85"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="E30" s="4">
+      <c r="E30" s="88">
         <v>6</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="I30" s="26"/>
+      <c r="F30" s="86"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="E31" s="4">
+      <c r="E31" s="88">
         <v>7</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="I31" s="26"/>
+      <c r="F31" s="87"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="F32" s="25"/>
-      <c r="I32" s="26"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="87"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="26"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4">
         <v>1</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="I34" s="26"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
@@ -1488,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="12"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
@@ -1497,7 +1527,7 @@
       <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="I36" s="26"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
@@ -1622,6 +1652,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1670,12 +1706,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
@@ -1685,6 +1715,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1697,18 +1741,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Barroc IT - Documentatie/Tom/Groep 1 - Agenda - 29-09-2015/agenda 29-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/Groep 1 - Agenda - 29-09-2015/agenda 29-09-2015.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Documents\GitHub\BarrocIT\Barroc IT - Documentatie\Tom\Groep 1 - Agenda - 29-09-2015\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Fer</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -734,6 +739,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -767,14 +776,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,9 +795,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -830,9 +835,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -867,7 +872,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -902,7 +907,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1081,8 +1086,8 @@
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="C13:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,51 +1107,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1469,32 +1474,32 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="E29" s="88">
+      <c r="E29" s="67">
         <v>5</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="64"/>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="E30" s="88">
+      <c r="E30" s="67">
         <v>6</v>
       </c>
-      <c r="F30" s="86"/>
+      <c r="F30" s="65"/>
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="E31" s="88">
+      <c r="E31" s="67">
         <v>7</v>
       </c>
-      <c r="F31" s="87"/>
+      <c r="F31" s="66"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="87"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="66"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="5:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,18 +1648,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1707,14 +1712,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1724,6 +1721,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
